--- a/biology/Mycologie/Psilocybe_crobula/Psilocybe_crobula.xlsx
+++ b/biology/Mycologie/Psilocybe_crobula/Psilocybe_crobula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilocybe à toupet
 Psilocybe crobula, le Psilocybe à toupet, est une espèce de champignons toxiques et hallucinogènes de la famille des Strophariaceae.
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Psilocybe crobula (Fr.) Singer, 1962[1],[2],[3].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus crobulus Fr., 1838[1],[2].
-Psilocybe crobula a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Psilocybe crobula (Fr.) Singer, 1962.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus crobulus Fr., 1838,.
+Psilocybe crobula a pour synonymes :
 Agaricus crobulus Fr., 1838
 Deconica crobulus (Fr.) Romagn. (1937), 1937
 Geophila crobula (Fr.) Kühner &amp; Romagn., 1953
@@ -552,7 +566,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sous le taxon Agaricus crobulus :
 (la) Elias Fries, Epicrisis Systematis mycologici, Uppsala, 1838, 610 p. (lire en ligne)
